--- a/insurance.xlsx
+++ b/insurance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
   <si>
     <t xml:space="preserve">هادی خانیا </t>
   </si>
@@ -255,9 +255,6 @@
     <t>1402/07/45</t>
   </si>
   <si>
-    <t>1402/07/46</t>
-  </si>
-  <si>
     <t>1402/07/47</t>
   </si>
   <si>
@@ -495,18 +492,6 @@
     <t>1402/08/18</t>
   </si>
   <si>
-    <t>سهراب اوصیا</t>
-  </si>
-  <si>
-    <t>ثاث</t>
-  </si>
-  <si>
-    <t>سیامک عباس نژاد</t>
-  </si>
-  <si>
-    <t>صندوق</t>
-  </si>
-  <si>
     <t>قسط برج 8 و داد درستش کنم</t>
   </si>
   <si>
@@ -519,9 +504,6 @@
     <t>ثالث-نیسان</t>
   </si>
   <si>
-    <t>اخرین تسویه برج 8-265تومن</t>
-  </si>
-  <si>
     <t>اصغر موسوی</t>
   </si>
   <si>
@@ -582,7 +564,43 @@
     <t>علی کرامت</t>
   </si>
   <si>
-    <t>450 من بدهکارم</t>
+    <t>اصغری</t>
+  </si>
+  <si>
+    <t>ثالث موتور</t>
+  </si>
+  <si>
+    <t>تا برج 8 اصغری تسویه کامل هستش</t>
+  </si>
+  <si>
+    <t>مایده حسین زاده</t>
+  </si>
+  <si>
+    <t>1402/09/21</t>
+  </si>
+  <si>
+    <t>احمد همسایه نانوا</t>
+  </si>
+  <si>
+    <t>1402/08/22</t>
+  </si>
+  <si>
+    <t>حامد بابا نژاد</t>
+  </si>
+  <si>
+    <t>اتش سوزی</t>
+  </si>
+  <si>
+    <t>زهرا یداله نژاد چاری</t>
+  </si>
+  <si>
+    <t>جواد شاگرد میثم</t>
+  </si>
+  <si>
+    <t>16300000خرید وسیله من از میثم</t>
+  </si>
+  <si>
+    <t>13060373 میثم اینجا بدهکاره</t>
   </si>
 </sst>
 </file>
@@ -949,7 +967,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,6 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="Currency" xfId="54" builtinId="4"/>
@@ -1385,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:LN106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -1399,23 +1418,24 @@
     <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="67.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1">
+    <row r="1" spans="1:12" ht="33" customHeight="1">
       <c r="A1" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>23</v>
@@ -1427,22 +1447,22 @@
         <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>46</v>
@@ -1461,12 +1481,12 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>46</v>
@@ -1485,16 +1505,16 @@
         <v>3244390</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>46</v>
@@ -1504,22 +1524,23 @@
       <c r="F4" s="5">
         <v>39360373</v>
       </c>
-      <c r="G4" s="6">
-        <v>37500000</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="5"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
+      <c r="J4" s="16"/>
+      <c r="K4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>46</v>
@@ -1528,35 +1549,39 @@
         <v>9113117054</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="5">
         <v>16167811</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6">
+        <v>16167811</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>16167811</v>
-      </c>
-      <c r="J5" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="F6" s="5">
         <v>33572000</v>
@@ -1572,19 +1597,19 @@
       <c r="J6" s="16"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5">
         <v>43245988</v>
@@ -1600,23 +1625,23 @@
         <v>989988</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5">
         <v>17200000</v>
@@ -1630,23 +1655,23 @@
         <v>0</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="5">
         <v>63286397</v>
@@ -1662,19 +1687,19 @@
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="5">
         <v>16696620</v>
@@ -1690,12 +1715,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>56</v>
@@ -1704,7 +1729,7 @@
         <v>9388665061</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="5">
         <v>18399751</v>
@@ -1720,12 +1745,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>56</v>
@@ -1734,7 +1759,7 @@
         <v>9194697930</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="7">
         <v>35271272</v>
@@ -1748,16 +1773,16 @@
         <v>22571272</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K12" s="38"/>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>39</v>
@@ -1766,7 +1791,7 @@
         <v>9360096995</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="53">
         <v>56069759</v>
@@ -1784,19 +1809,19 @@
       <c r="J13" s="30"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="5">
         <v>13139628</v>
@@ -1808,23 +1833,23 @@
         <v>13139628</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="5">
         <v>16074000</v>
@@ -1840,21 +1865,21 @@
       <c r="J15" s="16"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>137</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="D16" s="40">
         <v>9117442451</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="5">
         <v>32538715</v>
@@ -1875,16 +1900,16 @@
         <v>43</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="40">
         <v>1343886</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="5">
         <v>107312963</v>
@@ -1907,32 +1932,30 @@
         <v>44</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="D18" s="40">
         <v>25533346</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="5">
         <v>17630964</v>
       </c>
-      <c r="G18" s="6">
-        <v>9700000</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="5">
         <v>2650000</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="0"/>
-        <v>5280964</v>
+        <v>14980964</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18"/>
@@ -2256,16 +2279,16 @@
         <v>45</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="35">
         <v>2867464</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="5">
         <v>60912281</v>
@@ -2279,7 +2302,7 @@
         <v>43856810</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -2288,14 +2311,14 @@
         <v>46</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="5">
         <v>10300500</v>
@@ -2316,14 +2339,14 @@
         <v>47</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="5">
         <v>24234787</v>
@@ -2342,16 +2365,16 @@
         <v>48</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="35">
         <v>18781745</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="5">
         <v>44801047</v>
@@ -2372,7 +2395,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>49</v>
@@ -2381,7 +2404,7 @@
         <v>20838562</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="5">
         <v>54948146</v>
@@ -2402,7 +2425,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>50</v>
@@ -2411,7 +2434,7 @@
         <v>26557812</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="5">
         <v>54948146</v>
@@ -2432,7 +2455,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>51</v>
@@ -2441,7 +2464,7 @@
         <v>26253327</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="5">
         <v>53761257</v>
@@ -2455,7 +2478,7 @@
         <v>33761257</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -2464,7 +2487,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>52</v>
@@ -2473,7 +2496,7 @@
         <v>26252271</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="5">
         <v>40696489</v>
@@ -2489,7 +2512,7 @@
         <v>18000000</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" s="17">
         <v>9358547329</v>
@@ -2499,29 +2522,16 @@
       <c r="A27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>152</v>
-      </c>
+      <c r="B27" s="28"/>
       <c r="C27" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="35">
-        <v>8023565</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="5">
-        <v>14286080</v>
-      </c>
-      <c r="G27" s="6">
-        <v>14300000</v>
-      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="7">
-        <f t="shared" si="0"/>
-        <v>-13920</v>
-      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="16"/>
       <c r="K27" s="17"/>
       <c r="M27" s="25"/>
@@ -2843,24 +2853,16 @@
       <c r="A28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>54</v>
-      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2470000</v>
-      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>2470000</v>
+        <v>0</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="17"/>
@@ -3185,7 +3187,7 @@
         <v>55</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>55</v>
@@ -3194,16 +3196,18 @@
         <v>7160328</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="5">
         <v>17352044</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="55">
+        <v>5000000</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="7">
         <f t="shared" si="0"/>
-        <v>17352044</v>
+        <v>12352044</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="17"/>
@@ -3528,7 +3532,7 @@
         <v>56</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>56</v>
@@ -3537,7 +3541,7 @@
         <v>21367024</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F30" s="5">
         <v>22646819</v>
@@ -3871,14 +3875,14 @@
         <v>57</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" s="5">
         <v>17350000</v>
@@ -3899,7 +3903,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>58</v>
@@ -3908,7 +3912,7 @@
         <v>6998381</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F32" s="5">
         <v>50872026</v>
@@ -3929,7 +3933,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>59</v>
@@ -3957,7 +3961,7 @@
         <v>60</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>60</v>
@@ -3983,7 +3987,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>61</v>
@@ -4011,7 +4015,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>62</v>
@@ -4037,7 +4041,7 @@
         <v>63</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>63</v>
@@ -4065,7 +4069,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>64</v>
@@ -4093,16 +4097,16 @@
         <v>65</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D39" s="43">
         <v>24791501</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="5">
         <v>30554063</v>
@@ -4123,14 +4127,14 @@
         <v>66</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="6">
@@ -4142,7 +4146,7 @@
         <v>-15823816</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K40" s="17"/>
     </row>
@@ -4151,7 +4155,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>67</v>
@@ -4160,7 +4164,7 @@
         <v>5486840</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="5">
         <v>24325733</v>
@@ -4179,16 +4183,16 @@
     <row r="42" spans="1:11" customFormat="1" ht="15">
       <c r="A42" s="19"/>
       <c r="B42" s="39" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D42" s="39">
         <v>1312552</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F42" s="5">
         <v>4400000</v>
@@ -4204,16 +4208,16 @@
         <v>68</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D43" s="39">
         <v>4034556</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
@@ -4223,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K43" s="17"/>
     </row>
@@ -4232,27 +4236,27 @@
         <v>69</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="D44" s="39">
         <v>8295254</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" s="5">
         <v>46748544</v>
       </c>
       <c r="G44" s="6">
-        <v>23374000</v>
+        <v>35206189</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="7">
         <f t="shared" si="1"/>
-        <v>23374544</v>
+        <v>11542355</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="17"/>
@@ -4262,14 +4266,14 @@
         <v>70</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F45" s="5">
         <v>900000</v>
@@ -4288,14 +4292,14 @@
         <v>71</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" s="5">
         <v>4500000</v>
@@ -4310,92 +4314,121 @@
       <c r="K46" s="17"/>
     </row>
     <row r="47" spans="1:11" customFormat="1" ht="15">
-      <c r="A47" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="39">
+        <v>2063288984</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="5">
+        <v>8913673</v>
+      </c>
+      <c r="G47" s="6">
+        <v>8913673</v>
+      </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="16"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="K47" s="17"/>
     </row>
     <row r="48" spans="1:11" customFormat="1" ht="15">
       <c r="A48" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="39"/>
+        <v>72</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>178</v>
+      </c>
       <c r="C48" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="D48" s="39">
+        <v>26774033</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="5">
+        <v>21655439</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="16"/>
+        <v>21655439</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" customFormat="1" ht="15">
       <c r="A49" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="37"/>
+        <v>73</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>182</v>
+      </c>
       <c r="C49" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1000000</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="5"/>
       <c r="I49" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" customFormat="1" ht="15">
       <c r="A50" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="37"/>
+        <v>74</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>184</v>
+      </c>
       <c r="C50" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="5">
+        <v>49164129</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
       <c r="I50" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="16"/>
+        <v>49164129</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" customFormat="1" ht="15">
       <c r="A51" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
@@ -4411,11 +4444,11 @@
     </row>
     <row r="52" spans="1:11" customFormat="1" ht="15">
       <c r="A52" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="39"/>
@@ -4431,11 +4464,11 @@
     </row>
     <row r="53" spans="1:11" customFormat="1" ht="15">
       <c r="A53" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
@@ -4451,11 +4484,11 @@
     </row>
     <row r="54" spans="1:11" customFormat="1" ht="15">
       <c r="A54" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
@@ -4471,11 +4504,11 @@
     </row>
     <row r="55" spans="1:11" customFormat="1" ht="15">
       <c r="A55" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
@@ -4491,11 +4524,11 @@
     </row>
     <row r="56" spans="1:11" customFormat="1" ht="15">
       <c r="A56" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="44"/>
       <c r="C56" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="44"/>
       <c r="E56" s="44"/>
@@ -4511,11 +4544,11 @@
     </row>
     <row r="57" spans="1:11" customFormat="1" ht="15">
       <c r="A57" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="44"/>
       <c r="C57" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="44"/>
       <c r="E57" s="44"/>
@@ -4531,11 +4564,11 @@
     </row>
     <row r="58" spans="1:11" customFormat="1" ht="15">
       <c r="A58" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="38"/>
       <c r="C58" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
@@ -4551,11 +4584,11 @@
     </row>
     <row r="59" spans="1:11" customFormat="1" ht="15">
       <c r="A59" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
@@ -4571,11 +4604,11 @@
     </row>
     <row r="60" spans="1:11" customFormat="1" ht="15">
       <c r="A60" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="39"/>
@@ -4591,11 +4624,11 @@
     </row>
     <row r="61" spans="1:11" customFormat="1" ht="15">
       <c r="A61" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="28"/>
@@ -4611,11 +4644,11 @@
     </row>
     <row r="62" spans="1:11" customFormat="1" ht="15">
       <c r="A62" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="28"/>
@@ -4631,11 +4664,11 @@
     </row>
     <row r="63" spans="1:11" customFormat="1" ht="15">
       <c r="A63" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="36"/>
@@ -4651,11 +4684,11 @@
     </row>
     <row r="64" spans="1:11" customFormat="1" ht="15">
       <c r="A64" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="28"/>
@@ -4671,11 +4704,11 @@
     </row>
     <row r="65" spans="1:11" customFormat="1" ht="15">
       <c r="A65" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="28"/>
       <c r="C65" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="28"/>
@@ -4691,11 +4724,11 @@
     </row>
     <row r="66" spans="1:11" customFormat="1" ht="15">
       <c r="A66" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" s="28"/>
       <c r="C66" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="28"/>
@@ -4711,11 +4744,11 @@
     </row>
     <row r="67" spans="1:11" customFormat="1" ht="15">
       <c r="A67" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="28"/>
@@ -4731,11 +4764,11 @@
     </row>
     <row r="68" spans="1:11" customFormat="1" ht="15">
       <c r="A68" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -4751,11 +4784,11 @@
     </row>
     <row r="69" spans="1:11" customFormat="1" ht="15">
       <c r="A69" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="45"/>
       <c r="C69" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
@@ -4771,11 +4804,11 @@
     </row>
     <row r="70" spans="1:11" customFormat="1" ht="15">
       <c r="A70" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="28"/>
@@ -4791,11 +4824,11 @@
     </row>
     <row r="71" spans="1:11" customFormat="1" ht="15">
       <c r="A71" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="46"/>
       <c r="C71" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" s="46"/>
       <c r="E71" s="46"/>
@@ -4811,11 +4844,11 @@
     </row>
     <row r="72" spans="1:11" customFormat="1" ht="15">
       <c r="A72" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="46"/>
       <c r="C72" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72" s="46"/>
       <c r="E72" s="46"/>
@@ -4831,11 +4864,11 @@
     </row>
     <row r="73" spans="1:11" customFormat="1" ht="15">
       <c r="A73" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="28"/>
@@ -4851,11 +4884,11 @@
     </row>
     <row r="74" spans="1:11" customFormat="1" ht="15">
       <c r="A74" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="28"/>
@@ -4871,11 +4904,11 @@
     </row>
     <row r="75" spans="1:11" customFormat="1" ht="15">
       <c r="A75" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="28"/>
@@ -4891,11 +4924,11 @@
     </row>
     <row r="76" spans="1:11" customFormat="1" ht="15">
       <c r="A76" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="38"/>
       <c r="C76" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="38"/>
@@ -4911,11 +4944,11 @@
     </row>
     <row r="77" spans="1:11" customFormat="1" ht="15">
       <c r="A77" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="28"/>
@@ -4931,11 +4964,11 @@
     </row>
     <row r="78" spans="1:11" customFormat="1" ht="15">
       <c r="A78" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" s="47"/>
       <c r="C78" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="47"/>
@@ -4951,11 +4984,11 @@
     </row>
     <row r="79" spans="1:11" customFormat="1" ht="15">
       <c r="A79" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D79" s="48"/>
       <c r="E79" s="48"/>
@@ -4971,11 +5004,11 @@
     </row>
     <row r="80" spans="1:11" customFormat="1" ht="15">
       <c r="A80" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="49"/>
       <c r="C80" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
@@ -4991,7 +5024,7 @@
     </row>
     <row r="81" spans="1:11" customFormat="1" ht="15">
       <c r="A81" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" s="50"/>
       <c r="C81" s="34"/>
@@ -5009,7 +5042,7 @@
     </row>
     <row r="82" spans="1:11" customFormat="1" ht="15">
       <c r="A82" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="34"/>

--- a/insurance.xlsx
+++ b/insurance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="195">
   <si>
     <t xml:space="preserve">هادی خانیا </t>
   </si>
@@ -267,12 +267,6 @@
     <t>1402/07/50</t>
   </si>
   <si>
-    <t>1402/07/51</t>
-  </si>
-  <si>
-    <t>1402/07/52</t>
-  </si>
-  <si>
     <t>1402/07/53</t>
   </si>
   <si>
@@ -483,18 +477,12 @@
     <t>علی مهدی زاده</t>
   </si>
   <si>
-    <t>برج 7 و 8 باید مجموعا 12000000ریال پرداخت کنه</t>
-  </si>
-  <si>
     <t xml:space="preserve">4560000 ریال </t>
   </si>
   <si>
     <t>1402/08/18</t>
   </si>
   <si>
-    <t>قسط برج 8 و داد درستش کنم</t>
-  </si>
-  <si>
     <t>زینت عباسی</t>
   </si>
   <si>
@@ -601,6 +589,39 @@
   </si>
   <si>
     <t>13060373 میثم اینجا بدهکاره</t>
+  </si>
+  <si>
+    <t>قسط برج 9 و داد درستش کنم</t>
+  </si>
+  <si>
+    <t>محمود امیر دهی</t>
+  </si>
+  <si>
+    <t>1402/09/27</t>
+  </si>
+  <si>
+    <t>زکیه گرجی زاده</t>
+  </si>
+  <si>
+    <t>125000ریال بدهی عوارض بزرگراهی داشت</t>
+  </si>
+  <si>
+    <t>1402/9/27</t>
+  </si>
+  <si>
+    <t>علیرضا خانگلزاده</t>
+  </si>
+  <si>
+    <t>خانم جانزاده</t>
+  </si>
+  <si>
+    <t>سيدکامران حسيني حسن کل</t>
+  </si>
+  <si>
+    <t>1402/9/29</t>
+  </si>
+  <si>
+    <t>تاریخ چک 1403/1/16</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:LN106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -1426,16 +1447,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="33" customHeight="1">
       <c r="A1" s="54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>23</v>
@@ -1447,13 +1468,13 @@
         <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -1462,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>46</v>
@@ -1486,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>46</v>
@@ -1505,7 +1526,7 @@
         <v>3244390</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -1514,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>46</v>
@@ -1529,10 +1550,10 @@
       <c r="I4" s="7"/>
       <c r="J4" s="16"/>
       <c r="K4" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15">
@@ -1540,7 +1561,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>46</v>
@@ -1549,7 +1570,7 @@
         <v>9113117054</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="5">
         <v>16167811</v>
@@ -1563,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -1572,16 +1593,16 @@
         <v>32</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="5">
         <v>33572000</v>
@@ -1602,14 +1623,14 @@
         <v>33</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" s="5">
         <v>43245988</v>
@@ -1625,7 +1646,7 @@
         <v>989988</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -1634,14 +1655,14 @@
         <v>34</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="5">
         <v>17200000</v>
@@ -1655,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -1664,14 +1685,14 @@
         <v>35</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="5">
         <v>63286397</v>
@@ -1692,14 +1713,14 @@
         <v>36</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="5">
         <v>16696620</v>
@@ -1720,7 +1741,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>56</v>
@@ -1729,7 +1750,7 @@
         <v>9388665061</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="5">
         <v>18399751</v>
@@ -1750,7 +1771,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>56</v>
@@ -1759,21 +1780,21 @@
         <v>9194697930</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F12" s="7">
         <v>35271272</v>
       </c>
       <c r="G12" s="7">
-        <v>12700000</v>
+        <v>17700000</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>22571272</v>
+        <v>17571272</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12" s="38"/>
     </row>
@@ -1782,7 +1803,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>39</v>
@@ -1791,7 +1812,7 @@
         <v>9360096995</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" s="53">
         <v>56069759</v>
@@ -1814,14 +1835,14 @@
         <v>40</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="5">
         <v>13139628</v>
@@ -1833,7 +1854,7 @@
         <v>13139628</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K14" s="17"/>
     </row>
@@ -1842,14 +1863,14 @@
         <v>41</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" s="5">
         <v>16074000</v>
@@ -1870,16 +1891,16 @@
         <v>42</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D16" s="40">
         <v>9117442451</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16" s="5">
         <v>32538715</v>
@@ -1900,16 +1921,16 @@
         <v>43</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="40">
         <v>1343886</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="5">
         <v>107312963</v>
@@ -1932,16 +1953,16 @@
         <v>44</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="40">
         <v>25533346</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" s="5">
         <v>17630964</v>
@@ -1955,7 +1976,7 @@
         <v>14980964</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18"/>
@@ -2279,30 +2300,30 @@
         <v>45</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19" s="35">
         <v>2867464</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" s="5">
         <v>60912281</v>
       </c>
       <c r="G19" s="6">
-        <v>17055471</v>
+        <v>26185471</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="7">
         <f t="shared" si="0"/>
-        <v>43856810</v>
+        <v>34726810</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -2311,14 +2332,14 @@
         <v>46</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" s="5">
         <v>10300500</v>
@@ -2339,14 +2360,14 @@
         <v>47</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" s="5">
         <v>24234787</v>
@@ -2365,16 +2386,16 @@
         <v>48</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D22" s="35">
         <v>18781745</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F22" s="5">
         <v>44801047</v>
@@ -2395,7 +2416,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>49</v>
@@ -2404,7 +2425,7 @@
         <v>20838562</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="5">
         <v>54948146</v>
@@ -2425,7 +2446,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>50</v>
@@ -2434,7 +2455,7 @@
         <v>26557812</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F24" s="5">
         <v>54948146</v>
@@ -2455,7 +2476,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>51</v>
@@ -2464,7 +2485,7 @@
         <v>26253327</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F25" s="5">
         <v>53761257</v>
@@ -2478,7 +2499,7 @@
         <v>33761257</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -2487,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>52</v>
@@ -2496,7 +2517,7 @@
         <v>26252271</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" s="5">
         <v>40696489</v>
@@ -2511,9 +2532,7 @@
         <f t="shared" si="0"/>
         <v>18000000</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="J26" s="16"/>
       <c r="K26" s="17">
         <v>9358547329</v>
       </c>
@@ -2853,18 +2872,34 @@
       <c r="A28" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
+      <c r="B28" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="37">
+        <v>2609904</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="5">
+        <v>25916664</v>
+      </c>
+      <c r="G28" s="6">
+        <v>10916664</v>
+      </c>
+      <c r="H28" s="5">
+        <v>15000000</v>
+      </c>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="K28" s="17"/>
       <c r="L28" s="25"/>
       <c r="M28" s="32"/>
@@ -3187,7 +3222,7 @@
         <v>55</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>55</v>
@@ -3196,7 +3231,7 @@
         <v>7160328</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" s="5">
         <v>17352044</v>
@@ -3532,7 +3567,7 @@
         <v>56</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>56</v>
@@ -3541,7 +3576,7 @@
         <v>21367024</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F30" s="5">
         <v>22646819</v>
@@ -3875,14 +3910,14 @@
         <v>57</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" s="5">
         <v>17350000</v>
@@ -3903,7 +3938,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>58</v>
@@ -3912,7 +3947,7 @@
         <v>6998381</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" s="5">
         <v>50872026</v>
@@ -3933,7 +3968,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>59</v>
@@ -3961,7 +3996,7 @@
         <v>60</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>60</v>
@@ -3987,7 +4022,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>61</v>
@@ -4015,7 +4050,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>62</v>
@@ -4041,7 +4076,7 @@
         <v>63</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>63</v>
@@ -4069,7 +4104,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>64</v>
@@ -4097,19 +4132,19 @@
         <v>65</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D39" s="43">
         <v>24791501</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F39" s="5">
-        <v>30554063</v>
+        <v>24443251</v>
       </c>
       <c r="G39" s="6">
         <v>2440000</v>
@@ -4117,7 +4152,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>28114063</v>
+        <v>22003251</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
@@ -4127,14 +4162,14 @@
         <v>66</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="6">
@@ -4146,7 +4181,7 @@
         <v>-15823816</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K40" s="17"/>
     </row>
@@ -4155,7 +4190,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>67</v>
@@ -4164,7 +4199,7 @@
         <v>5486840</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F41" s="5">
         <v>24325733</v>
@@ -4183,16 +4218,16 @@
     <row r="42" spans="1:11" customFormat="1" ht="15">
       <c r="A42" s="19"/>
       <c r="B42" s="39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D42" s="39">
         <v>1312552</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F42" s="5">
         <v>4400000</v>
@@ -4208,16 +4243,16 @@
         <v>68</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D43" s="39">
         <v>4034556</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
@@ -4227,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K43" s="17"/>
     </row>
@@ -4236,16 +4271,16 @@
         <v>69</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D44" s="39">
         <v>8295254</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F44" s="5">
         <v>46748544</v>
@@ -4266,14 +4301,14 @@
         <v>70</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F45" s="5">
         <v>900000</v>
@@ -4292,14 +4327,14 @@
         <v>71</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F46" s="5">
         <v>4500000</v>
@@ -4316,14 +4351,14 @@
     <row r="47" spans="1:11" customFormat="1" ht="15">
       <c r="A47" s="19"/>
       <c r="B47" s="39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="39">
         <v>2063288984</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F47" s="5">
         <v>8913673</v>
@@ -4334,7 +4369,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="7"/>
       <c r="J47" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K47" s="17"/>
     </row>
@@ -4343,16 +4378,16 @@
         <v>72</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D48" s="39">
         <v>26774033</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F48" s="5">
         <v>21655439</v>
@@ -4364,7 +4399,7 @@
         <v>21655439</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K48" s="17"/>
     </row>
@@ -4373,14 +4408,14 @@
         <v>73</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F49" s="5">
         <v>1000000</v>
@@ -4399,116 +4434,158 @@
         <v>74</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F50" s="5">
         <v>49164129</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6">
+        <v>12300000</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="7">
         <f t="shared" si="1"/>
-        <v>49164129</v>
+        <v>36864129</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" customFormat="1" ht="15">
       <c r="A51" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="37"/>
+        <v>186</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="C51" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="6"/>
+      <c r="D51" s="37">
+        <v>7240501</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="5">
+        <v>18653077</v>
+      </c>
+      <c r="G51" s="6">
+        <v>4700000</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13953077</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" customFormat="1" ht="15">
       <c r="A52" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="39"/>
+        <v>186</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>187</v>
+      </c>
       <c r="C52" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="D52" s="39">
+        <v>24926413</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="5">
+        <v>48483838</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
       <c r="I52" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="16"/>
+        <v>48483838</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" customFormat="1" ht="15">
       <c r="A53" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="39"/>
+        <v>186</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>190</v>
+      </c>
       <c r="C53" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="D53" s="39">
+        <v>6333767</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="5">
+        <v>29364091</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="5"/>
       <c r="I53" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="16"/>
+        <v>29364091</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" customFormat="1" ht="15">
       <c r="A54" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>157</v>
+      </c>
       <c r="C54" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="D54" s="39">
+        <v>24791501</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="5">
+        <v>42480518</v>
+      </c>
+      <c r="G54" s="6">
+        <v>18170000</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24310518</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" customFormat="1" ht="15">
       <c r="A55" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
@@ -4524,11 +4601,11 @@
     </row>
     <row r="56" spans="1:11" customFormat="1" ht="15">
       <c r="A56" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B56" s="44"/>
       <c r="C56" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" s="44"/>
       <c r="E56" s="44"/>
@@ -4544,11 +4621,11 @@
     </row>
     <row r="57" spans="1:11" customFormat="1" ht="15">
       <c r="A57" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B57" s="44"/>
       <c r="C57" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D57" s="44"/>
       <c r="E57" s="44"/>
@@ -4564,11 +4641,11 @@
     </row>
     <row r="58" spans="1:11" customFormat="1" ht="15">
       <c r="A58" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" s="38"/>
       <c r="C58" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
@@ -4584,11 +4661,11 @@
     </row>
     <row r="59" spans="1:11" customFormat="1" ht="15">
       <c r="A59" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
@@ -4604,11 +4681,11 @@
     </row>
     <row r="60" spans="1:11" customFormat="1" ht="15">
       <c r="A60" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="39"/>
@@ -4624,11 +4701,11 @@
     </row>
     <row r="61" spans="1:11" customFormat="1" ht="15">
       <c r="A61" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="28"/>
@@ -4644,11 +4721,11 @@
     </row>
     <row r="62" spans="1:11" customFormat="1" ht="15">
       <c r="A62" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="28"/>
@@ -4664,11 +4741,11 @@
     </row>
     <row r="63" spans="1:11" customFormat="1" ht="15">
       <c r="A63" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="36"/>
@@ -4684,11 +4761,11 @@
     </row>
     <row r="64" spans="1:11" customFormat="1" ht="15">
       <c r="A64" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="28"/>
@@ -4704,11 +4781,11 @@
     </row>
     <row r="65" spans="1:11" customFormat="1" ht="15">
       <c r="A65" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" s="28"/>
       <c r="C65" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="28"/>
@@ -4724,11 +4801,11 @@
     </row>
     <row r="66" spans="1:11" customFormat="1" ht="15">
       <c r="A66" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B66" s="28"/>
       <c r="C66" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="28"/>
@@ -4744,11 +4821,11 @@
     </row>
     <row r="67" spans="1:11" customFormat="1" ht="15">
       <c r="A67" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="28"/>
@@ -4764,11 +4841,11 @@
     </row>
     <row r="68" spans="1:11" customFormat="1" ht="15">
       <c r="A68" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -4784,11 +4861,11 @@
     </row>
     <row r="69" spans="1:11" customFormat="1" ht="15">
       <c r="A69" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" s="45"/>
       <c r="C69" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
@@ -4804,11 +4881,11 @@
     </row>
     <row r="70" spans="1:11" customFormat="1" ht="15">
       <c r="A70" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="28"/>
@@ -4824,11 +4901,11 @@
     </row>
     <row r="71" spans="1:11" customFormat="1" ht="15">
       <c r="A71" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="46"/>
       <c r="C71" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D71" s="46"/>
       <c r="E71" s="46"/>
@@ -4844,11 +4921,11 @@
     </row>
     <row r="72" spans="1:11" customFormat="1" ht="15">
       <c r="A72" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="46"/>
       <c r="C72" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D72" s="46"/>
       <c r="E72" s="46"/>
@@ -4864,11 +4941,11 @@
     </row>
     <row r="73" spans="1:11" customFormat="1" ht="15">
       <c r="A73" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="28"/>
@@ -4884,11 +4961,11 @@
     </row>
     <row r="74" spans="1:11" customFormat="1" ht="15">
       <c r="A74" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="28"/>
@@ -4904,11 +4981,11 @@
     </row>
     <row r="75" spans="1:11" customFormat="1" ht="15">
       <c r="A75" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="28"/>
@@ -4924,11 +5001,11 @@
     </row>
     <row r="76" spans="1:11" customFormat="1" ht="15">
       <c r="A76" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B76" s="38"/>
       <c r="C76" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="38"/>
@@ -4944,11 +5021,11 @@
     </row>
     <row r="77" spans="1:11" customFormat="1" ht="15">
       <c r="A77" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="28"/>
@@ -4964,11 +5041,11 @@
     </row>
     <row r="78" spans="1:11" customFormat="1" ht="15">
       <c r="A78" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B78" s="47"/>
       <c r="C78" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="47"/>
@@ -4984,11 +5061,11 @@
     </row>
     <row r="79" spans="1:11" customFormat="1" ht="15">
       <c r="A79" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D79" s="48"/>
       <c r="E79" s="48"/>
@@ -5004,11 +5081,11 @@
     </row>
     <row r="80" spans="1:11" customFormat="1" ht="15">
       <c r="A80" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B80" s="49"/>
       <c r="C80" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
@@ -5024,7 +5101,7 @@
     </row>
     <row r="81" spans="1:11" customFormat="1" ht="15">
       <c r="A81" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B81" s="50"/>
       <c r="C81" s="34"/>
@@ -5042,7 +5119,7 @@
     </row>
     <row r="82" spans="1:11" customFormat="1" ht="15">
       <c r="A82" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="34"/>

--- a/insurance.xlsx
+++ b/insurance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
   <si>
     <t xml:space="preserve">هادی خانیا </t>
   </si>
@@ -477,9 +477,6 @@
     <t>علی مهدی زاده</t>
   </si>
   <si>
-    <t xml:space="preserve">4560000 ریال </t>
-  </si>
-  <si>
     <t>1402/08/18</t>
   </si>
   <si>
@@ -492,9 +489,6 @@
     <t>ثالث-نیسان</t>
   </si>
   <si>
-    <t>اصغر موسوی</t>
-  </si>
-  <si>
     <t>شماره تلفن یا کد بیمه گذار</t>
   </si>
   <si>
@@ -622,6 +616,69 @@
   </si>
   <si>
     <t>تاریخ چک 1403/1/16</t>
+  </si>
+  <si>
+    <t>حامد بابانژاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ايوب علائي </t>
+  </si>
+  <si>
+    <t>1402/09/29</t>
+  </si>
+  <si>
+    <t>سيدمحمد حسيني</t>
+  </si>
+  <si>
+    <t>1402/10/2</t>
+  </si>
+  <si>
+    <t>معرف دلاور محمدی</t>
+  </si>
+  <si>
+    <t>مسعود رضاپور بیژنی</t>
+  </si>
+  <si>
+    <t>مجید شهباز طبری</t>
+  </si>
+  <si>
+    <t>امیر نعمت نژاد</t>
+  </si>
+  <si>
+    <t>فرشته بزرگ نژاد</t>
+  </si>
+  <si>
+    <t>آتشسوزی</t>
+  </si>
+  <si>
+    <t>میثم فیروزنژاد</t>
+  </si>
+  <si>
+    <t>1402/10/5</t>
+  </si>
+  <si>
+    <t>زينب پوشيده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حامد ثابتيان مجاوري  </t>
+  </si>
+  <si>
+    <t>1402/10/7</t>
+  </si>
+  <si>
+    <t>سيدمحمدرضا پورموسوي کاني</t>
+  </si>
+  <si>
+    <t>1402/10/8</t>
+  </si>
+  <si>
+    <t>سيدعليرضا اوصياء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سميه حمزه زاده </t>
+  </si>
+  <si>
+    <t>اقای داوریان سامان</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1045,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,6 +1124,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="Currency" xfId="54" builtinId="4"/>
@@ -1425,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:LN106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -1456,7 +1514,7 @@
         <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>23</v>
@@ -1550,10 +1608,10 @@
       <c r="I4" s="7"/>
       <c r="J4" s="16"/>
       <c r="K4" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15">
@@ -1700,10 +1758,12 @@
       <c r="G9" s="6">
         <v>15000000</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>11250000</v>
+      </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>48286397</v>
+        <v>37036397</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
@@ -1786,12 +1846,12 @@
         <v>35271272</v>
       </c>
       <c r="G12" s="7">
-        <v>17700000</v>
+        <v>22625000</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>17571272</v>
+        <v>12646272</v>
       </c>
       <c r="J12" s="52" t="s">
         <v>126</v>
@@ -1873,7 +1933,7 @@
         <v>113</v>
       </c>
       <c r="F15" s="5">
-        <v>16074000</v>
+        <v>16745887</v>
       </c>
       <c r="G15" s="6">
         <v>16740000</v>
@@ -1881,7 +1941,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="7">
         <f t="shared" si="0"/>
-        <v>-666000</v>
+        <v>5887</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="17"/>
@@ -1897,7 +1957,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="40">
-        <v>9117442451</v>
+        <v>32</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>113</v>
@@ -1976,7 +2036,7 @@
         <v>14980964</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18"/>
@@ -2303,7 +2363,7 @@
         <v>140</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="35">
         <v>2867464</v>
@@ -2323,7 +2383,7 @@
         <v>34726810</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -2461,12 +2521,12 @@
         <v>54948146</v>
       </c>
       <c r="G24" s="6">
-        <v>13737037</v>
+        <v>27475037</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="7">
         <f t="shared" si="0"/>
-        <v>41211109</v>
+        <v>27473109</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="17"/>
@@ -2498,9 +2558,7 @@
         <f t="shared" si="0"/>
         <v>33761257</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>146</v>
-      </c>
+      <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:326" customFormat="1" ht="15">
@@ -2526,11 +2584,11 @@
         <v>10696489</v>
       </c>
       <c r="H26" s="5">
-        <v>12000000</v>
+        <v>24000000</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="0"/>
-        <v>18000000</v>
+        <v>6000000</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="17">
@@ -2873,10 +2931,10 @@
         <v>54</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D28" s="37">
         <v>2609904</v>
@@ -2888,17 +2946,15 @@
         <v>25916664</v>
       </c>
       <c r="G28" s="6">
-        <v>10916664</v>
-      </c>
-      <c r="H28" s="5">
-        <v>15000000</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15916664</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="25"/>
@@ -3222,7 +3278,7 @@
         <v>55</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>55</v>
@@ -3567,7 +3623,7 @@
         <v>56</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>56</v>
@@ -3576,7 +3632,7 @@
         <v>21367024</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" s="5">
         <v>22646819</v>
@@ -3910,7 +3966,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>57</v>
@@ -3923,12 +3979,12 @@
         <v>17350000</v>
       </c>
       <c r="G31" s="6">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="7">
         <f t="shared" si="0"/>
-        <v>12350000</v>
+        <v>7350000</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="17"/>
@@ -3938,7 +3994,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>58</v>
@@ -3968,7 +4024,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>59</v>
@@ -3996,7 +4052,7 @@
         <v>60</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>60</v>
@@ -4076,7 +4132,7 @@
         <v>63</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>63</v>
@@ -4104,7 +4160,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>64</v>
@@ -4132,10 +4188,10 @@
         <v>65</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="43">
         <v>24791501</v>
@@ -4162,7 +4218,7 @@
         <v>66</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>66</v>
@@ -4181,7 +4237,7 @@
         <v>-15823816</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K40" s="17"/>
     </row>
@@ -4190,7 +4246,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>67</v>
@@ -4218,16 +4274,16 @@
     <row r="42" spans="1:11" customFormat="1" ht="15">
       <c r="A42" s="19"/>
       <c r="B42" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>167</v>
       </c>
       <c r="D42" s="39">
         <v>1312552</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F42" s="5">
         <v>4400000</v>
@@ -4243,10 +4299,10 @@
         <v>68</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43" s="39">
         <v>4034556</v>
@@ -4262,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K43" s="17"/>
     </row>
@@ -4274,7 +4330,7 @@
         <v>112</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" s="39">
         <v>8295254</v>
@@ -4301,14 +4357,14 @@
         <v>70</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F45" s="5">
         <v>900000</v>
@@ -4327,7 +4383,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>71</v>
@@ -4351,14 +4407,14 @@
     <row r="47" spans="1:11" customFormat="1" ht="15">
       <c r="A47" s="19"/>
       <c r="B47" s="39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="39">
         <v>2063288984</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F47" s="5">
         <v>8913673</v>
@@ -4378,10 +4434,10 @@
         <v>72</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D48" s="39">
         <v>26774033</v>
@@ -4392,14 +4448,16 @@
       <c r="F48" s="5">
         <v>21655439</v>
       </c>
-      <c r="G48" s="6"/>
+      <c r="G48" s="6">
+        <v>21655439</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="7">
         <f t="shared" si="1"/>
-        <v>21655439</v>
+        <v>0</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K48" s="17"/>
     </row>
@@ -4408,14 +4466,14 @@
         <v>73</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F49" s="5">
         <v>1000000</v>
@@ -4434,7 +4492,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>74</v>
@@ -4455,16 +4513,16 @@
         <v>36864129</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" customFormat="1" ht="15">
       <c r="A51" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>75</v>
@@ -4491,13 +4549,13 @@
     </row>
     <row r="52" spans="1:11" customFormat="1" ht="15">
       <c r="A52" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B52" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>187</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="D52" s="39">
         <v>24926413</v>
@@ -4515,19 +4573,19 @@
         <v>48483838</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" customFormat="1" ht="15">
       <c r="A53" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D53" s="39">
         <v>6333767</v>
@@ -4545,7 +4603,7 @@
         <v>29364091</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K53" s="17"/>
     </row>
@@ -4554,7 +4612,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>76</v>
@@ -4583,18 +4641,26 @@
       <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="41"/>
+      <c r="B55" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="C55" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="D55" s="41">
+        <v>7953878</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="5">
+        <v>56747994</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="5"/>
       <c r="I55" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56747994</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="17"/>
@@ -4603,54 +4669,84 @@
       <c r="A56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="44"/>
+      <c r="B56" s="44" t="s">
+        <v>194</v>
+      </c>
       <c r="C56" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="D56" s="44">
+        <v>26811255</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="5">
+        <v>61168094</v>
+      </c>
+      <c r="G56" s="6">
+        <v>15293000</v>
+      </c>
       <c r="H56" s="5"/>
       <c r="I56" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="16"/>
+        <v>45875094</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="K56" s="17"/>
     </row>
     <row r="57" spans="1:11" customFormat="1" ht="15">
       <c r="A57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="44"/>
+      <c r="B57" s="44" t="s">
+        <v>196</v>
+      </c>
       <c r="C57" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="D57" s="44">
+        <v>26824359</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="5">
+        <v>37333039</v>
+      </c>
+      <c r="G57" s="6">
+        <v>9350000</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="16"/>
+        <v>27983039</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="K57" s="17"/>
     </row>
     <row r="58" spans="1:11" customFormat="1" ht="15">
       <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="38" t="s">
+        <v>199</v>
+      </c>
       <c r="C58" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="5">
+        <v>35953049</v>
+      </c>
+      <c r="G58" s="6">
+        <v>35953049</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="7">
         <f t="shared" si="1"/>
@@ -4663,14 +4759,20 @@
       <c r="A59" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="39" t="s">
+        <v>200</v>
+      </c>
       <c r="C59" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="5">
+        <v>19048107</v>
+      </c>
+      <c r="G59" s="6">
+        <v>19048107</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="7">
         <f t="shared" si="1"/>
@@ -4683,18 +4785,26 @@
       <c r="A60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="39"/>
+      <c r="B60" s="39" t="s">
+        <v>201</v>
+      </c>
       <c r="C60" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
+      <c r="E60" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="5">
+        <v>48825765</v>
+      </c>
+      <c r="G60" s="6">
+        <v>48850000</v>
+      </c>
       <c r="H60" s="5"/>
       <c r="I60" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-24235</v>
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="17"/>
@@ -4703,18 +4813,24 @@
       <c r="A61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="28"/>
+      <c r="B61" s="28" t="s">
+        <v>202</v>
+      </c>
       <c r="C61" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D61" s="35"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="5"/>
+      <c r="E61" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="5">
+        <v>6360000</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="5"/>
       <c r="I61" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6360000</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="17"/>
@@ -4723,18 +4839,26 @@
       <c r="A62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="28" t="s">
+        <v>204</v>
+      </c>
       <c r="C62" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="35"/>
+        <v>205</v>
+      </c>
+      <c r="D62" s="35">
+        <v>8145731</v>
+      </c>
       <c r="E62" s="28"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="5">
+        <v>54948146</v>
+      </c>
+      <c r="G62" s="6">
+        <v>13737037</v>
+      </c>
       <c r="H62" s="5"/>
       <c r="I62" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F62-G62-H62</f>
+        <v>41211109</v>
       </c>
       <c r="J62" s="16"/>
       <c r="K62" s="17"/>
@@ -4743,18 +4867,26 @@
       <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="33" t="s">
+        <v>206</v>
+      </c>
       <c r="C63" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="5"/>
+      <c r="D63" s="35">
+        <v>26557812</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" s="5">
+        <v>53194723</v>
+      </c>
       <c r="G63" s="6"/>
       <c r="H63" s="5"/>
       <c r="I63" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53194723</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="17"/>
@@ -4763,18 +4895,28 @@
       <c r="A64" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="28"/>
+      <c r="B64" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="C64" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="D64" s="35">
+        <v>76151</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="5">
+        <v>47480558</v>
+      </c>
+      <c r="G64" s="6">
+        <v>30000000</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17480558</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="17"/>
@@ -4783,18 +4925,26 @@
       <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="28"/>
+      <c r="B65" s="28" t="s">
+        <v>209</v>
+      </c>
       <c r="C65" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="D65" s="35">
+        <v>5412706</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" s="5">
+        <v>16439947</v>
+      </c>
       <c r="G65" s="6"/>
       <c r="H65" s="5"/>
       <c r="I65" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16439947</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="17"/>
@@ -4803,18 +4953,26 @@
       <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="28"/>
+      <c r="B66" s="28" t="s">
+        <v>211</v>
+      </c>
       <c r="C66" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="5"/>
+      <c r="D66" s="35">
+        <v>23983144</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="5">
+        <v>55327261</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="5"/>
       <c r="I66" s="7">
         <f t="shared" ref="I66:I89" si="2">F66-G66-H66</f>
-        <v>0</v>
+        <v>55327261</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="17"/>
@@ -4823,18 +4981,28 @@
       <c r="A67" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="56" t="s">
+        <v>212</v>
+      </c>
       <c r="C67" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="D67" s="35">
+        <v>7953878</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="5">
+        <v>56747994</v>
+      </c>
+      <c r="G67" s="6">
+        <v>16700000</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40047994</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="17"/>

--- a/insurance.xlsx
+++ b/insurance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="217">
   <si>
     <t xml:space="preserve">هادی خانیا </t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>اقای داوریان سامان</t>
+  </si>
+  <si>
+    <t>علي اصغر پورموسوي</t>
+  </si>
+  <si>
+    <t>ثالث -تیبا</t>
+  </si>
+  <si>
+    <t>1402/10/10</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:LN106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -5011,18 +5020,26 @@
       <c r="A68" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="C68" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="D68" s="19">
+        <v>6842785</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68" s="5">
+        <v>28262236</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="H68" s="5"/>
       <c r="I68" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28262236</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="17"/>
